--- a/Semester 5/2. Grand-Opening/JADWAL STUPEN LEARNINGX.xlsx
+++ b/Semester 5/2. Grand-Opening/JADWAL STUPEN LEARNINGX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Zefanya\Dokumen\Kuliah\Semester 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Zefanya\Dokumen\Kuliah\Semester 5\2. Grand-Opening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8D20EF0-9543-4672-9E8C-01E5720D189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF20DEF6-F528-4D45-846D-C7A0BEE6A89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BD6ACF87-FF3E-4F53-9866-6D3027BE94C5}"/>
   </bookViews>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,13 +257,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -302,8 +295,35 @@
       <color rgb="FF1F1F1F"/>
       <name val="Google Sans"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -738,24 +764,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,203 +785,41 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -984,25 +830,49 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,41 +884,218 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1366,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D483B6F-379A-4C40-A0C9-30D83F226427}">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="56" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="56" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1381,22 +1428,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="1"/>
@@ -1422,7 +1469,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="27" thickTop="1" thickBot="1">
+    <row r="6" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1435,19 +1482,19 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -1465,64 +1512,64 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="24" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="115" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="116"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="25"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="116"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="25"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="116"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="116"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="25"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="116"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="26"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="117"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="6"/>
@@ -1533,19 +1580,19 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1">
-      <c r="A18" s="15"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="7">
         <v>9</v>
       </c>
@@ -1563,70 +1610,70 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="44.5" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="36" t="s">
+      <c r="D19" s="92"/>
+      <c r="E19" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="103" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="28"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="104"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="20"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="104"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="104"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="28"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="104"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="6"/>
@@ -1637,19 +1684,19 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
-      <c r="A28" s="15"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="7">
         <v>16</v>
       </c>
@@ -1667,72 +1714,72 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="103" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="20"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="49"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="104"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="49"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="104"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="20"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="49"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="104"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="49"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="104"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="20"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="49"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="104"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="50"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="A36" s="6"/>
@@ -1743,19 +1790,19 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1">
-      <c r="A38" s="15"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="7">
         <v>23</v>
       </c>
@@ -1773,70 +1820,70 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="36" t="s">
+      <c r="C39" s="92"/>
+      <c r="D39" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="97" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="20"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="52"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="20"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="52"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="20"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="52"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="20"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="52"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="20"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="52"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="53"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="118"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1">
       <c r="A46" s="2"/>
@@ -1846,7 +1893,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="40" thickTop="1" thickBot="1">
+    <row r="47" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
       <c r="A47" s="4" t="s">
         <v>1</v>
       </c>
@@ -1859,19 +1906,19 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1">
-      <c r="A49" s="15"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="7">
         <v>30</v>
       </c>
@@ -1889,70 +1936,70 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="76"/>
+      <c r="D50" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="54" t="s">
+      <c r="F50" s="88" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="20"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="55"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="89"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="20"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="55"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="89"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="20"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="55"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="89"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="20"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="55"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="89"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="20"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="55"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="89"/>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1">
-      <c r="A56" s="15"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="56"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="90"/>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1">
       <c r="A57" s="6"/>
@@ -1963,19 +2010,19 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1">
-      <c r="A59" s="15"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="7">
         <v>7</v>
       </c>
@@ -1993,70 +2040,70 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="36.5" customHeight="1">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="36" t="s">
+      <c r="C60" s="76"/>
+      <c r="D60" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="57" t="s">
+      <c r="F60" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="20"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="58"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="20"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="58"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="52"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="20"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="58"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="52"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="20"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="58"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="20"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="58"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1">
-      <c r="A66" s="15"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="59"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="84"/>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1">
       <c r="A67" s="6"/>
@@ -2067,19 +2114,19 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="18"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1">
-      <c r="A69" s="15"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="7">
         <v>14</v>
       </c>
@@ -2097,70 +2144,70 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="36" t="s">
+      <c r="C70" s="76"/>
+      <c r="D70" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="60" t="s">
+      <c r="F70" s="85" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="20"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="61"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="86"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="20"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="61"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="86"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="20"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="61"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="86"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="20"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="61"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="86"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="20"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="61"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="86"/>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1">
-      <c r="A76" s="15"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="62"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="87"/>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1">
       <c r="A77" s="6"/>
@@ -2171,19 +2218,19 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="18"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1">
-      <c r="A79" s="15"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="7">
         <v>21</v>
       </c>
@@ -2201,70 +2248,70 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="21" customHeight="1">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="36" t="s">
+      <c r="C80" s="76"/>
+      <c r="D80" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="45" t="s">
+      <c r="E80" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="57" t="s">
+      <c r="F80" s="51" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="20"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="58"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="52"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="20"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="58"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="52"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="20"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="58"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="52"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="20"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="58"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="52"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="20"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="58"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="52"/>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1">
-      <c r="A86" s="15"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="59"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="84"/>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1">
       <c r="A87" s="2"/>
@@ -2274,7 +2321,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" ht="40" thickTop="1" thickBot="1">
+    <row r="88" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
       <c r="A88" s="4" t="s">
         <v>1</v>
       </c>
@@ -2287,19 +2334,19 @@
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="18"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1">
-      <c r="A90" s="15"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="7">
         <v>28</v>
       </c>
@@ -2317,70 +2364,70 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="45" t="s">
+      <c r="C91" s="76"/>
+      <c r="D91" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E91" s="45" t="s">
+      <c r="E91" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="36" t="s">
+      <c r="F91" s="66" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="20"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="37"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="67"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="20"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="37"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="67"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="20"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="37"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="67"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="20"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="37"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="67"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="20"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="37"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="67"/>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1">
-      <c r="A97" s="15"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="38"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="79"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="68"/>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1">
       <c r="A98" s="6"/>
@@ -2391,19 +2438,19 @@
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1">
-      <c r="A100" s="15"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="7">
         <v>4</v>
       </c>
@@ -2421,72 +2468,72 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C101" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D101" s="63" t="s">
+      <c r="D101" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="63" t="s">
+      <c r="E101" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="66" t="s">
+      <c r="F101" s="72" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="20"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="67"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="73"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="20"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="67"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="73"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="20"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="67"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="73"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="20"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="67"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="73"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="20"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="67"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="73"/>
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1">
-      <c r="A107" s="15"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="68"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="74"/>
     </row>
     <row r="108" spans="1:6" ht="15" thickBot="1">
       <c r="A108" s="6"/>
@@ -2497,19 +2544,19 @@
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="18"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:6" ht="15" thickBot="1">
-      <c r="A110" s="15"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="7">
         <v>11</v>
       </c>
@@ -2527,66 +2574,66 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="69" t="s">
+      <c r="B111" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="72" t="s">
+      <c r="C111" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="74"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="59"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="20"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="75"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="77"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="62"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="20"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="75"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="77"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="62"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="20"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="75"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="77"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="62"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="20"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="75"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="77"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="62"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="20"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="75"/>
-      <c r="D116" s="76"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="77"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="62"/>
     </row>
     <row r="117" spans="1:6" ht="15" thickBot="1">
-      <c r="A117" s="15"/>
-      <c r="B117" s="71"/>
-      <c r="C117" s="78"/>
-      <c r="D117" s="79"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="80"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="65"/>
     </row>
     <row r="118" spans="1:6" ht="15" thickBot="1">
       <c r="A118" s="6"/>
@@ -2597,19 +2644,19 @@
       <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6" ht="15" thickBot="1">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="18"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="12"/>
     </row>
     <row r="120" spans="1:6" ht="15" thickBot="1">
-      <c r="A120" s="15"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="7">
         <v>18</v>
       </c>
@@ -2627,70 +2674,70 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B121" s="81" t="s">
+      <c r="B121" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="83"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="50"/>
     </row>
     <row r="122" spans="1:6" ht="26" customHeight="1">
-      <c r="A122" s="20"/>
-      <c r="B122" s="84" t="s">
+      <c r="A122" s="14"/>
+      <c r="B122" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C122" s="87"/>
-      <c r="D122" s="84" t="s">
+      <c r="C122" s="27"/>
+      <c r="D122" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="87"/>
-      <c r="F122" s="57" t="s">
+      <c r="E122" s="27"/>
+      <c r="F122" s="51" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="20"/>
-      <c r="B123" s="85"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="88"/>
-      <c r="F123" s="58"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="52"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="20"/>
-      <c r="B124" s="85"/>
-      <c r="C124" s="88"/>
-      <c r="D124" s="85"/>
-      <c r="E124" s="88"/>
-      <c r="F124" s="58"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="52"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="20"/>
-      <c r="B125" s="85"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="88"/>
-      <c r="F125" s="58"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="52"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="20"/>
-      <c r="B126" s="85"/>
-      <c r="C126" s="88"/>
-      <c r="D126" s="85"/>
-      <c r="E126" s="88"/>
-      <c r="F126" s="58"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="52"/>
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1">
-      <c r="A127" s="15"/>
-      <c r="B127" s="86"/>
-      <c r="C127" s="89"/>
-      <c r="D127" s="86"/>
-      <c r="E127" s="89"/>
-      <c r="F127" s="90"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="53"/>
     </row>
     <row r="128" spans="1:6" ht="15" thickBot="1">
       <c r="A128" s="6"/>
@@ -2701,19 +2748,19 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="18"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="12"/>
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1">
-      <c r="A130" s="15"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="7">
         <v>25</v>
       </c>
@@ -2731,70 +2778,70 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" thickBot="1">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="81" t="s">
+      <c r="B131" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C131" s="82"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82"/>
-      <c r="F131" s="83"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="49"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="50"/>
     </row>
     <row r="132" spans="1:6" ht="26" customHeight="1">
-      <c r="A132" s="20"/>
-      <c r="B132" s="84" t="s">
+      <c r="A132" s="14"/>
+      <c r="B132" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C132" s="87"/>
-      <c r="D132" s="84" t="s">
+      <c r="C132" s="27"/>
+      <c r="D132" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E132" s="87"/>
-      <c r="F132" s="84" t="s">
+      <c r="E132" s="27"/>
+      <c r="F132" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="20"/>
-      <c r="B133" s="85"/>
-      <c r="C133" s="88"/>
-      <c r="D133" s="85"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="85"/>
+      <c r="A133" s="14"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="40"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="20"/>
-      <c r="B134" s="85"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="85"/>
-      <c r="E134" s="88"/>
-      <c r="F134" s="85"/>
+      <c r="A134" s="14"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="40"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="20"/>
-      <c r="B135" s="85"/>
-      <c r="C135" s="88"/>
-      <c r="D135" s="85"/>
-      <c r="E135" s="88"/>
-      <c r="F135" s="85"/>
+      <c r="A135" s="14"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="40"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="20"/>
-      <c r="B136" s="85"/>
-      <c r="C136" s="88"/>
-      <c r="D136" s="85"/>
-      <c r="E136" s="88"/>
-      <c r="F136" s="85"/>
+      <c r="A136" s="14"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="40"/>
     </row>
     <row r="137" spans="1:6" ht="15" thickBot="1">
-      <c r="A137" s="15"/>
-      <c r="B137" s="86"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="86"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="86"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="41"/>
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1">
       <c r="A138" s="2"/>
@@ -2804,7 +2851,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" ht="27" thickTop="1" thickBot="1">
+    <row r="139" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
       <c r="A139" s="4" t="s">
         <v>1</v>
       </c>
@@ -2817,19 +2864,19 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="18"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="12"/>
     </row>
     <row r="141" spans="1:6" ht="15" thickBot="1">
-      <c r="A141" s="15"/>
+      <c r="A141" s="9"/>
       <c r="B141" s="7">
         <v>2</v>
       </c>
@@ -2847,70 +2894,70 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" thickBot="1">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B142" s="81" t="s">
+      <c r="B142" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="82"/>
-      <c r="D142" s="82"/>
-      <c r="E142" s="82"/>
-      <c r="F142" s="83"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="50"/>
     </row>
     <row r="143" spans="1:6" ht="26" customHeight="1">
-      <c r="A143" s="20"/>
-      <c r="B143" s="84" t="s">
+      <c r="A143" s="14"/>
+      <c r="B143" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C143" s="87"/>
-      <c r="D143" s="84" t="s">
+      <c r="C143" s="27"/>
+      <c r="D143" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="87"/>
-      <c r="F143" s="84" t="s">
+      <c r="E143" s="27"/>
+      <c r="F143" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="20"/>
-      <c r="B144" s="85"/>
-      <c r="C144" s="88"/>
-      <c r="D144" s="85"/>
-      <c r="E144" s="88"/>
-      <c r="F144" s="85"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="40"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="20"/>
-      <c r="B145" s="85"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="85"/>
-      <c r="E145" s="88"/>
-      <c r="F145" s="85"/>
+      <c r="A145" s="14"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="40"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="20"/>
-      <c r="B146" s="85"/>
-      <c r="C146" s="88"/>
-      <c r="D146" s="85"/>
-      <c r="E146" s="88"/>
-      <c r="F146" s="85"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="40"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="20"/>
-      <c r="B147" s="85"/>
-      <c r="C147" s="88"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="88"/>
-      <c r="F147" s="85"/>
+      <c r="A147" s="14"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="40"/>
     </row>
     <row r="148" spans="1:6" ht="15" thickBot="1">
-      <c r="A148" s="15"/>
-      <c r="B148" s="86"/>
-      <c r="C148" s="89"/>
-      <c r="D148" s="86"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="86"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="41"/>
     </row>
     <row r="149" spans="1:6" ht="15" thickBot="1">
       <c r="A149" s="6"/>
@@ -2921,19 +2968,19 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" ht="15" thickBot="1">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="18"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="12"/>
     </row>
     <row r="151" spans="1:6" ht="15" thickBot="1">
-      <c r="A151" s="15"/>
+      <c r="A151" s="9"/>
       <c r="B151" s="7">
         <v>9</v>
       </c>
@@ -2951,70 +2998,70 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" thickBot="1">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="81" t="s">
+      <c r="B152" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="82"/>
-      <c r="D152" s="82"/>
-      <c r="E152" s="82"/>
-      <c r="F152" s="83"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="50"/>
     </row>
     <row r="153" spans="1:6" ht="26" customHeight="1">
-      <c r="A153" s="20"/>
-      <c r="B153" s="84" t="s">
+      <c r="A153" s="14"/>
+      <c r="B153" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="87"/>
-      <c r="D153" s="84" t="s">
+      <c r="C153" s="27"/>
+      <c r="D153" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="87"/>
-      <c r="F153" s="84" t="s">
+      <c r="E153" s="27"/>
+      <c r="F153" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="20"/>
-      <c r="B154" s="85"/>
-      <c r="C154" s="88"/>
-      <c r="D154" s="85"/>
-      <c r="E154" s="88"/>
-      <c r="F154" s="85"/>
+      <c r="A154" s="14"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="40"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="20"/>
-      <c r="B155" s="85"/>
-      <c r="C155" s="88"/>
-      <c r="D155" s="85"/>
-      <c r="E155" s="88"/>
-      <c r="F155" s="85"/>
+      <c r="A155" s="14"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="40"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="20"/>
-      <c r="B156" s="85"/>
-      <c r="C156" s="88"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="88"/>
-      <c r="F156" s="85"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="40"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="20"/>
-      <c r="B157" s="85"/>
-      <c r="C157" s="88"/>
-      <c r="D157" s="85"/>
-      <c r="E157" s="88"/>
-      <c r="F157" s="85"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="40"/>
     </row>
     <row r="158" spans="1:6" ht="15" thickBot="1">
-      <c r="A158" s="15"/>
-      <c r="B158" s="86"/>
-      <c r="C158" s="89"/>
-      <c r="D158" s="86"/>
-      <c r="E158" s="89"/>
-      <c r="F158" s="86"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="41"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="41"/>
     </row>
     <row r="159" spans="1:6" ht="15" thickBot="1">
       <c r="A159" s="6"/>
@@ -3025,19 +3072,19 @@
       <c r="F159" s="6"/>
     </row>
     <row r="160" spans="1:6" ht="15" thickBot="1">
-      <c r="A160" s="19" t="s">
+      <c r="A160" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="18"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" ht="15" thickBot="1">
-      <c r="A161" s="15"/>
+      <c r="A161" s="9"/>
       <c r="B161" s="7">
         <v>16</v>
       </c>
@@ -3055,72 +3102,72 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="28" customHeight="1" thickBot="1">
-      <c r="A162" s="19" t="s">
+      <c r="A162" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="91" t="s">
+      <c r="B162" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C162" s="92"/>
-      <c r="D162" s="92"/>
-      <c r="E162" s="93"/>
-      <c r="F162" s="94" t="s">
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="36" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="59" customHeight="1">
-      <c r="A163" s="20"/>
-      <c r="B163" s="84" t="s">
+      <c r="A163" s="14"/>
+      <c r="B163" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C163" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D163" s="97"/>
+      <c r="D163" s="45"/>
       <c r="E163" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F163" s="95"/>
+      <c r="F163" s="37"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="20"/>
-      <c r="B164" s="85"/>
+      <c r="A164" s="14"/>
+      <c r="B164" s="40"/>
       <c r="C164" s="43"/>
-      <c r="D164" s="98"/>
+      <c r="D164" s="46"/>
       <c r="E164" s="43"/>
-      <c r="F164" s="95"/>
+      <c r="F164" s="37"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="20"/>
-      <c r="B165" s="85"/>
+      <c r="A165" s="14"/>
+      <c r="B165" s="40"/>
       <c r="C165" s="43"/>
-      <c r="D165" s="98"/>
+      <c r="D165" s="46"/>
       <c r="E165" s="43"/>
-      <c r="F165" s="95"/>
+      <c r="F165" s="37"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="20"/>
-      <c r="B166" s="85"/>
+      <c r="A166" s="14"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="43"/>
-      <c r="D166" s="98"/>
+      <c r="D166" s="46"/>
       <c r="E166" s="43"/>
-      <c r="F166" s="95"/>
+      <c r="F166" s="37"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="20"/>
-      <c r="B167" s="85"/>
+      <c r="A167" s="14"/>
+      <c r="B167" s="40"/>
       <c r="C167" s="43"/>
-      <c r="D167" s="98"/>
+      <c r="D167" s="46"/>
       <c r="E167" s="43"/>
-      <c r="F167" s="95"/>
+      <c r="F167" s="37"/>
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1">
-      <c r="A168" s="15"/>
-      <c r="B168" s="86"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="41"/>
       <c r="C168" s="44"/>
-      <c r="D168" s="99"/>
+      <c r="D168" s="47"/>
       <c r="E168" s="44"/>
-      <c r="F168" s="96"/>
+      <c r="F168" s="38"/>
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1">
       <c r="A169" s="6"/>
@@ -3131,19 +3178,19 @@
       <c r="F169" s="6"/>
     </row>
     <row r="170" spans="1:6" ht="15" thickBot="1">
-      <c r="A170" s="19" t="s">
+      <c r="A170" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="18"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="12"/>
     </row>
     <row r="171" spans="1:6" ht="15" thickBot="1">
-      <c r="A171" s="15"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="7">
         <v>23</v>
       </c>
@@ -3161,68 +3208,68 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="38.5" customHeight="1">
-      <c r="A172" s="19" t="s">
+      <c r="A172" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="87"/>
-      <c r="C172" s="100" t="s">
+      <c r="B172" s="27"/>
+      <c r="C172" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D172" s="39" t="s">
+      <c r="D172" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E172" s="39" t="s">
+      <c r="E172" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F172" s="103"/>
+      <c r="F172" s="15"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="20"/>
-      <c r="B173" s="88"/>
-      <c r="C173" s="101"/>
-      <c r="D173" s="40"/>
-      <c r="E173" s="40"/>
-      <c r="F173" s="104"/>
+      <c r="A173" s="14"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="16"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="20"/>
-      <c r="B174" s="88"/>
-      <c r="C174" s="101"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="40"/>
-      <c r="F174" s="104"/>
+      <c r="A174" s="14"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="16"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="20"/>
-      <c r="B175" s="88"/>
-      <c r="C175" s="101"/>
-      <c r="D175" s="40"/>
-      <c r="E175" s="40"/>
-      <c r="F175" s="104"/>
+      <c r="A175" s="14"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="16"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="20"/>
-      <c r="B176" s="88"/>
-      <c r="C176" s="101"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="104"/>
+      <c r="A176" s="14"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="16"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="20"/>
-      <c r="B177" s="88"/>
-      <c r="C177" s="101"/>
-      <c r="D177" s="40"/>
-      <c r="E177" s="40"/>
-      <c r="F177" s="104"/>
+      <c r="A177" s="14"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="16"/>
     </row>
     <row r="178" spans="1:6" ht="15" thickBot="1">
-      <c r="A178" s="15"/>
-      <c r="B178" s="89"/>
-      <c r="C178" s="102"/>
-      <c r="D178" s="41"/>
-      <c r="E178" s="41"/>
-      <c r="F178" s="105"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="17"/>
     </row>
     <row r="179" spans="1:6" ht="15" thickBot="1">
       <c r="A179" s="2"/>
@@ -3232,7 +3279,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" ht="27" thickTop="1" thickBot="1">
+    <row r="180" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
       <c r="A180" s="4" t="s">
         <v>1</v>
       </c>
@@ -3245,19 +3292,19 @@
       <c r="F180" s="6"/>
     </row>
     <row r="181" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="18"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="12"/>
     </row>
     <row r="182" spans="1:6" ht="15" thickBot="1">
-      <c r="A182" s="15"/>
+      <c r="A182" s="9"/>
       <c r="B182" s="7">
         <v>30</v>
       </c>
@@ -3275,190 +3322,67 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="19" t="s">
+      <c r="A183" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B183" s="103"/>
-      <c r="C183" s="103"/>
-      <c r="D183" s="39" t="s">
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E183" s="106"/>
-      <c r="F183" s="107"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="22"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="20"/>
-      <c r="B184" s="104"/>
-      <c r="C184" s="104"/>
-      <c r="D184" s="40"/>
-      <c r="E184" s="108"/>
-      <c r="F184" s="109"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="24"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="20"/>
-      <c r="B185" s="104"/>
-      <c r="C185" s="104"/>
-      <c r="D185" s="40"/>
-      <c r="E185" s="108"/>
-      <c r="F185" s="109"/>
+      <c r="A185" s="14"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="24"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="20"/>
-      <c r="B186" s="104"/>
-      <c r="C186" s="104"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="108"/>
-      <c r="F186" s="109"/>
+      <c r="A186" s="14"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="24"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="20"/>
-      <c r="B187" s="104"/>
-      <c r="C187" s="104"/>
-      <c r="D187" s="40"/>
-      <c r="E187" s="108"/>
-      <c r="F187" s="109"/>
+      <c r="A187" s="14"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="24"/>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="20"/>
-      <c r="B188" s="104"/>
-      <c r="C188" s="104"/>
-      <c r="D188" s="40"/>
-      <c r="E188" s="108"/>
-      <c r="F188" s="109"/>
+      <c r="A188" s="14"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="24"/>
     </row>
     <row r="189" spans="1:6" ht="15" thickBot="1">
-      <c r="A189" s="15"/>
-      <c r="B189" s="105"/>
-      <c r="C189" s="105"/>
-      <c r="D189" s="41"/>
-      <c r="E189" s="110"/>
-      <c r="F189" s="111"/>
+      <c r="A189" s="9"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="25"/>
+      <c r="F189" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="139">
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="A183:A189"/>
-    <mergeCell ref="B183:B189"/>
-    <mergeCell ref="C183:C189"/>
-    <mergeCell ref="D183:D189"/>
-    <mergeCell ref="E183:F189"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="A172:A178"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="D172:D178"/>
-    <mergeCell ref="E172:E178"/>
-    <mergeCell ref="F172:F178"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="A162:A168"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="F162:F168"/>
-    <mergeCell ref="B163:B168"/>
-    <mergeCell ref="C163:C168"/>
-    <mergeCell ref="D163:D168"/>
-    <mergeCell ref="E163:E168"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="C153:C158"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="E153:E158"/>
-    <mergeCell ref="F153:F158"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="C143:C148"/>
-    <mergeCell ref="D143:D148"/>
-    <mergeCell ref="E143:E148"/>
-    <mergeCell ref="F143:F148"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="D132:D137"/>
-    <mergeCell ref="E132:E137"/>
-    <mergeCell ref="F132:F137"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:B127"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="D122:D127"/>
-    <mergeCell ref="E122:E127"/>
-    <mergeCell ref="F122:F127"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="C111:F117"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="C101:C107"/>
-    <mergeCell ref="D101:D107"/>
-    <mergeCell ref="E101:E107"/>
-    <mergeCell ref="F101:F107"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:C97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="F91:F97"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="B80:C86"/>
-    <mergeCell ref="D80:D86"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="F80:F86"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C76"/>
-    <mergeCell ref="D70:D76"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="F70:F76"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="B39:C45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="A19:A25"/>
@@ -3475,6 +3399,129 @@
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="F9:F15"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:C86"/>
+    <mergeCell ref="D80:D86"/>
+    <mergeCell ref="E80:E86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C76"/>
+    <mergeCell ref="D70:D76"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="F70:F76"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="D101:D107"/>
+    <mergeCell ref="E101:E107"/>
+    <mergeCell ref="F101:F107"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:C97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="F91:F97"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:B127"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="D122:D127"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="F122:F127"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="C111:F117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="D132:D137"/>
+    <mergeCell ref="E132:E137"/>
+    <mergeCell ref="F132:F137"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="A142:A148"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="D143:D148"/>
+    <mergeCell ref="E143:E148"/>
+    <mergeCell ref="F143:F148"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="C153:C158"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="E153:E158"/>
+    <mergeCell ref="F153:F158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="A162:A168"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="F162:F168"/>
+    <mergeCell ref="B163:B168"/>
+    <mergeCell ref="C163:C168"/>
+    <mergeCell ref="D163:D168"/>
+    <mergeCell ref="E163:E168"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="A183:A189"/>
+    <mergeCell ref="B183:B189"/>
+    <mergeCell ref="C183:C189"/>
+    <mergeCell ref="D183:D189"/>
+    <mergeCell ref="E183:F189"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="D172:D178"/>
+    <mergeCell ref="E172:E178"/>
+    <mergeCell ref="F172:F178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Semester 5/2. Grand-Opening/JADWAL STUPEN LEARNINGX.xlsx
+++ b/Semester 5/2. Grand-Opening/JADWAL STUPEN LEARNINGX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Zefanya\Dokumen\Kuliah\Semester 5\2. Grand-Opening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF20DEF6-F528-4D45-846D-C7A0BEE6A89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D1CFD5-4919-4E98-A018-467E8676AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BD6ACF87-FF3E-4F53-9866-6D3027BE94C5}"/>
   </bookViews>
@@ -764,26 +764,293 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -821,15 +1088,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,264 +1095,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D483B6F-379A-4C40-A0C9-30D83F226427}">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="56" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50:D56"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="56" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1428,22 +1428,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="1"/>
@@ -1482,7 +1482,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1512,64 +1512,64 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="115" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="116"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="116"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="116"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="116"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="116"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="117"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="6"/>
@@ -1580,7 +1580,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1610,70 +1610,70 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="44.5" customHeight="1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="97" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="103" t="s">
+      <c r="F19" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="104"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="104"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="104"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="104"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="104"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="105"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="6"/>
@@ -1684,7 +1684,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1714,72 +1714,72 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="104"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="104"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="104"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="104"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="104"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="105"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="A36" s="6"/>
@@ -1790,7 +1790,7 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -1820,70 +1820,70 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="97" t="s">
+      <c r="C39" s="18"/>
+      <c r="D39" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="97" t="s">
+      <c r="E39" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="97" t="s">
+      <c r="F39" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="14"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" s="9"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="118"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1">
       <c r="A46" s="2"/>
@@ -1906,7 +1906,7 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -1936,70 +1936,70 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="66" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="81" t="s">
+      <c r="E50" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="88" t="s">
+      <c r="F50" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="14"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="89"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="59"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="14"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="89"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="59"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="14"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="89"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="59"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="14"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="89"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="59"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="14"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="89"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="59"/>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1">
       <c r="A56" s="9"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="90"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1">
       <c r="A57" s="6"/>
@@ -2010,7 +2010,7 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -2040,70 +2040,70 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="36.5" customHeight="1">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="66" t="s">
+      <c r="C60" s="44"/>
+      <c r="D60" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="81" t="s">
+      <c r="E60" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="51" t="s">
+      <c r="F60" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="14"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="52"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="56"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="14"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="52"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="56"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="14"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="52"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="56"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="14"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="52"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="56"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="14"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="52"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="56"/>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1">
       <c r="A66" s="9"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="84"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="57"/>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1">
       <c r="A67" s="6"/>
@@ -2114,7 +2114,7 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -2144,70 +2144,70 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="76"/>
-      <c r="D70" s="66" t="s">
+      <c r="C70" s="44"/>
+      <c r="D70" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="81" t="s">
+      <c r="E70" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="85" t="s">
+      <c r="F70" s="61" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="14"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="86"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="62"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="14"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="86"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="62"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="14"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="86"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="62"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="14"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="86"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="62"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="14"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="82"/>
-      <c r="F75" s="86"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="62"/>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1">
       <c r="A76" s="9"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="87"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="63"/>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1">
       <c r="A77" s="6"/>
@@ -2218,7 +2218,7 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -2248,70 +2248,70 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="21" customHeight="1">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="75" t="s">
+      <c r="B80" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="76"/>
-      <c r="D80" s="66" t="s">
+      <c r="C80" s="44"/>
+      <c r="D80" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="81" t="s">
+      <c r="E80" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="51" t="s">
+      <c r="F80" s="55" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="14"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="52"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="56"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="14"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="52"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="56"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="14"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="52"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="56"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="14"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="52"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="56"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="14"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="52"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="56"/>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1">
       <c r="A86" s="9"/>
-      <c r="B86" s="79"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="84"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="57"/>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1">
       <c r="A87" s="2"/>
@@ -2334,7 +2334,7 @@
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B89" s="10" t="s">
@@ -2364,70 +2364,70 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="75" t="s">
+      <c r="B91" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="76"/>
-      <c r="D91" s="81" t="s">
+      <c r="C91" s="44"/>
+      <c r="D91" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E91" s="81" t="s">
+      <c r="E91" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="66" t="s">
+      <c r="F91" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="14"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="67"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="50"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="14"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="67"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="50"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="14"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="67"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="50"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="14"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="67"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="50"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="14"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="78"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="67"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="50"/>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1">
       <c r="A97" s="9"/>
-      <c r="B97" s="79"/>
-      <c r="C97" s="80"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="68"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="51"/>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1">
       <c r="A98" s="6"/>
@@ -2438,7 +2438,7 @@
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B99" s="10" t="s">
@@ -2468,72 +2468,72 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="69" t="s">
+      <c r="C101" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D101" s="69" t="s">
+      <c r="D101" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="69" t="s">
+      <c r="E101" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="72" t="s">
+      <c r="F101" s="67" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="14"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="73"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="68"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="14"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="73"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="68"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="14"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="73"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="68"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="14"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="73"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="68"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="14"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="73"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="68"/>
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1">
       <c r="A107" s="9"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="74"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="69"/>
     </row>
     <row r="108" spans="1:6" ht="15" thickBot="1">
       <c r="A108" s="6"/>
@@ -2544,7 +2544,7 @@
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B109" s="10" t="s">
@@ -2574,66 +2574,66 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="57" t="s">
+      <c r="C111" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="59"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="85"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="14"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="62"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="88"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="14"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="61"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="62"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="81"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="87"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="88"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="14"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="61"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="62"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="86"/>
+      <c r="D114" s="87"/>
+      <c r="E114" s="87"/>
+      <c r="F114" s="88"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="14"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="61"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="62"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="87"/>
+      <c r="E115" s="87"/>
+      <c r="F115" s="88"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="14"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="61"/>
-      <c r="E116" s="61"/>
-      <c r="F116" s="62"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="81"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="87"/>
+      <c r="E116" s="87"/>
+      <c r="F116" s="88"/>
     </row>
     <row r="117" spans="1:6" ht="15" thickBot="1">
       <c r="A117" s="9"/>
-      <c r="B117" s="56"/>
-      <c r="C117" s="63"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="65"/>
+      <c r="B117" s="82"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="90"/>
+      <c r="E117" s="90"/>
+      <c r="F117" s="91"/>
     </row>
     <row r="118" spans="1:6" ht="15" thickBot="1">
       <c r="A118" s="6"/>
@@ -2644,7 +2644,7 @@
       <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6" ht="15" thickBot="1">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B119" s="10" t="s">
@@ -2674,70 +2674,70 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B121" s="48" t="s">
+      <c r="B121" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="49"/>
-      <c r="D121" s="49"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="50"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="72"/>
     </row>
     <row r="122" spans="1:6" ht="26" customHeight="1">
-      <c r="A122" s="14"/>
-      <c r="B122" s="39" t="s">
+      <c r="A122" s="13"/>
+      <c r="B122" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C122" s="27"/>
-      <c r="D122" s="39" t="s">
+      <c r="C122" s="76"/>
+      <c r="D122" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="51" t="s">
+      <c r="E122" s="76"/>
+      <c r="F122" s="55" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="14"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="52"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="56"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="14"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="52"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="77"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="56"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="14"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="52"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="56"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="14"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="52"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="77"/>
+      <c r="D126" s="74"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="56"/>
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1">
       <c r="A127" s="9"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="53"/>
+      <c r="B127" s="75"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="75"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="79"/>
     </row>
     <row r="128" spans="1:6" ht="15" thickBot="1">
       <c r="A128" s="6"/>
@@ -2748,7 +2748,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B129" s="10" t="s">
@@ -2778,70 +2778,70 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" thickBot="1">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="48" t="s">
+      <c r="B131" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C131" s="49"/>
-      <c r="D131" s="49"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="50"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="72"/>
     </row>
     <row r="132" spans="1:6" ht="26" customHeight="1">
-      <c r="A132" s="14"/>
-      <c r="B132" s="39" t="s">
+      <c r="A132" s="13"/>
+      <c r="B132" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C132" s="27"/>
-      <c r="D132" s="39" t="s">
+      <c r="C132" s="76"/>
+      <c r="D132" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="39" t="s">
+      <c r="E132" s="76"/>
+      <c r="F132" s="73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="14"/>
-      <c r="B133" s="40"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="40"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="40"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="74"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="14"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="40"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="40"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="77"/>
+      <c r="F134" s="74"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="14"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="40"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="74"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="14"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="40"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="74"/>
     </row>
     <row r="137" spans="1:6" ht="15" thickBot="1">
       <c r="A137" s="9"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="41"/>
+      <c r="B137" s="75"/>
+      <c r="C137" s="78"/>
+      <c r="D137" s="75"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="75"/>
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1">
       <c r="A138" s="2"/>
@@ -2864,7 +2864,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B140" s="10" t="s">
@@ -2894,70 +2894,70 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" thickBot="1">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B142" s="48" t="s">
+      <c r="B142" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="49"/>
-      <c r="D142" s="49"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="50"/>
+      <c r="C142" s="71"/>
+      <c r="D142" s="71"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="72"/>
     </row>
     <row r="143" spans="1:6" ht="26" customHeight="1">
-      <c r="A143" s="14"/>
-      <c r="B143" s="39" t="s">
+      <c r="A143" s="13"/>
+      <c r="B143" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C143" s="27"/>
-      <c r="D143" s="39" t="s">
+      <c r="C143" s="76"/>
+      <c r="D143" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="27"/>
-      <c r="F143" s="39" t="s">
+      <c r="E143" s="76"/>
+      <c r="F143" s="73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="14"/>
-      <c r="B144" s="40"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="40"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="74"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="74"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="14"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="40"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="74"/>
+      <c r="C145" s="77"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="77"/>
+      <c r="F145" s="74"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="14"/>
-      <c r="B146" s="40"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="40"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="74"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="74"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="14"/>
-      <c r="B147" s="40"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="40"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="77"/>
+      <c r="F147" s="74"/>
     </row>
     <row r="148" spans="1:6" ht="15" thickBot="1">
       <c r="A148" s="9"/>
-      <c r="B148" s="41"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="41"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="41"/>
+      <c r="B148" s="75"/>
+      <c r="C148" s="78"/>
+      <c r="D148" s="75"/>
+      <c r="E148" s="78"/>
+      <c r="F148" s="75"/>
     </row>
     <row r="149" spans="1:6" ht="15" thickBot="1">
       <c r="A149" s="6"/>
@@ -2968,7 +2968,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" ht="15" thickBot="1">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B150" s="10" t="s">
@@ -2998,70 +2998,70 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" thickBot="1">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="48" t="s">
+      <c r="B152" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="49"/>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="50"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="72"/>
     </row>
     <row r="153" spans="1:6" ht="26" customHeight="1">
-      <c r="A153" s="14"/>
-      <c r="B153" s="39" t="s">
+      <c r="A153" s="13"/>
+      <c r="B153" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="27"/>
-      <c r="D153" s="39" t="s">
+      <c r="C153" s="76"/>
+      <c r="D153" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="27"/>
-      <c r="F153" s="39" t="s">
+      <c r="E153" s="76"/>
+      <c r="F153" s="73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="14"/>
-      <c r="B154" s="40"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="40"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="40"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="74"/>
+      <c r="C154" s="77"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="77"/>
+      <c r="F154" s="74"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="14"/>
-      <c r="B155" s="40"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="40"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="40"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="74"/>
+      <c r="C155" s="77"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="77"/>
+      <c r="F155" s="74"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="14"/>
-      <c r="B156" s="40"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="40"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="40"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="77"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="77"/>
+      <c r="F156" s="74"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="14"/>
-      <c r="B157" s="40"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="40"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="40"/>
+      <c r="A157" s="13"/>
+      <c r="B157" s="74"/>
+      <c r="C157" s="77"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="77"/>
+      <c r="F157" s="74"/>
     </row>
     <row r="158" spans="1:6" ht="15" thickBot="1">
       <c r="A158" s="9"/>
-      <c r="B158" s="41"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="41"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="78"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="78"/>
+      <c r="F158" s="75"/>
     </row>
     <row r="159" spans="1:6" ht="15" thickBot="1">
       <c r="A159" s="6"/>
@@ -3072,7 +3072,7 @@
       <c r="F159" s="6"/>
     </row>
     <row r="160" spans="1:6" ht="15" thickBot="1">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B160" s="10" t="s">
@@ -3102,72 +3102,72 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="28" customHeight="1" thickBot="1">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="33" t="s">
+      <c r="B162" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="36" t="s">
+      <c r="C162" s="93"/>
+      <c r="D162" s="93"/>
+      <c r="E162" s="94"/>
+      <c r="F162" s="95" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="59" customHeight="1">
-      <c r="A163" s="14"/>
-      <c r="B163" s="39" t="s">
+      <c r="A163" s="13"/>
+      <c r="B163" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C163" s="42" t="s">
+      <c r="C163" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="D163" s="45"/>
-      <c r="E163" s="42" t="s">
+      <c r="D163" s="101"/>
+      <c r="E163" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="F163" s="37"/>
+      <c r="F163" s="96"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="14"/>
-      <c r="B164" s="40"/>
-      <c r="C164" s="43"/>
-      <c r="D164" s="46"/>
-      <c r="E164" s="43"/>
-      <c r="F164" s="37"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="74"/>
+      <c r="C164" s="99"/>
+      <c r="D164" s="102"/>
+      <c r="E164" s="99"/>
+      <c r="F164" s="96"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="14"/>
-      <c r="B165" s="40"/>
-      <c r="C165" s="43"/>
-      <c r="D165" s="46"/>
-      <c r="E165" s="43"/>
-      <c r="F165" s="37"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="99"/>
+      <c r="D165" s="102"/>
+      <c r="E165" s="99"/>
+      <c r="F165" s="96"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="14"/>
-      <c r="B166" s="40"/>
-      <c r="C166" s="43"/>
-      <c r="D166" s="46"/>
-      <c r="E166" s="43"/>
-      <c r="F166" s="37"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="74"/>
+      <c r="C166" s="99"/>
+      <c r="D166" s="102"/>
+      <c r="E166" s="99"/>
+      <c r="F166" s="96"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="14"/>
-      <c r="B167" s="40"/>
-      <c r="C167" s="43"/>
-      <c r="D167" s="46"/>
-      <c r="E167" s="43"/>
-      <c r="F167" s="37"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="99"/>
+      <c r="D167" s="102"/>
+      <c r="E167" s="99"/>
+      <c r="F167" s="96"/>
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1">
       <c r="A168" s="9"/>
-      <c r="B168" s="41"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="47"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="38"/>
+      <c r="B168" s="75"/>
+      <c r="C168" s="100"/>
+      <c r="D168" s="103"/>
+      <c r="E168" s="100"/>
+      <c r="F168" s="97"/>
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1">
       <c r="A169" s="6"/>
@@ -3178,7 +3178,7 @@
       <c r="F169" s="6"/>
     </row>
     <row r="170" spans="1:6" ht="15" thickBot="1">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B170" s="10" t="s">
@@ -3208,68 +3208,68 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="38.5" customHeight="1">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="27"/>
-      <c r="C172" s="30" t="s">
+      <c r="B172" s="76"/>
+      <c r="C172" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="E172" s="18" t="s">
+      <c r="E172" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F172" s="15"/>
+      <c r="F172" s="104"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="14"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="16"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="117"/>
+      <c r="D173" s="108"/>
+      <c r="E173" s="108"/>
+      <c r="F173" s="105"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="14"/>
-      <c r="B174" s="28"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="16"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="77"/>
+      <c r="C174" s="117"/>
+      <c r="D174" s="108"/>
+      <c r="E174" s="108"/>
+      <c r="F174" s="105"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="14"/>
-      <c r="B175" s="28"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="16"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="77"/>
+      <c r="C175" s="117"/>
+      <c r="D175" s="108"/>
+      <c r="E175" s="108"/>
+      <c r="F175" s="105"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="14"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="16"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="77"/>
+      <c r="C176" s="117"/>
+      <c r="D176" s="108"/>
+      <c r="E176" s="108"/>
+      <c r="F176" s="105"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="14"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="16"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="77"/>
+      <c r="C177" s="117"/>
+      <c r="D177" s="108"/>
+      <c r="E177" s="108"/>
+      <c r="F177" s="105"/>
     </row>
     <row r="178" spans="1:6" ht="15" thickBot="1">
       <c r="A178" s="9"/>
-      <c r="B178" s="29"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="17"/>
+      <c r="B178" s="78"/>
+      <c r="C178" s="118"/>
+      <c r="D178" s="109"/>
+      <c r="E178" s="109"/>
+      <c r="F178" s="106"/>
     </row>
     <row r="179" spans="1:6" ht="15" thickBot="1">
       <c r="A179" s="2"/>
@@ -3292,7 +3292,7 @@
       <c r="F180" s="6"/>
     </row>
     <row r="181" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B181" s="10" t="s">
@@ -3322,67 +3322,190 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="13" t="s">
+      <c r="A183" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="18" t="s">
+      <c r="B183" s="104"/>
+      <c r="C183" s="104"/>
+      <c r="D183" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="E183" s="21"/>
-      <c r="F183" s="22"/>
+      <c r="E183" s="110"/>
+      <c r="F183" s="111"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="14"/>
-      <c r="B184" s="16"/>
-      <c r="C184" s="16"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="23"/>
-      <c r="F184" s="24"/>
+      <c r="A184" s="13"/>
+      <c r="B184" s="105"/>
+      <c r="C184" s="105"/>
+      <c r="D184" s="108"/>
+      <c r="E184" s="112"/>
+      <c r="F184" s="113"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="14"/>
-      <c r="B185" s="16"/>
-      <c r="C185" s="16"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="23"/>
-      <c r="F185" s="24"/>
+      <c r="A185" s="13"/>
+      <c r="B185" s="105"/>
+      <c r="C185" s="105"/>
+      <c r="D185" s="108"/>
+      <c r="E185" s="112"/>
+      <c r="F185" s="113"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="14"/>
-      <c r="B186" s="16"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="23"/>
-      <c r="F186" s="24"/>
+      <c r="A186" s="13"/>
+      <c r="B186" s="105"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="108"/>
+      <c r="E186" s="112"/>
+      <c r="F186" s="113"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="14"/>
-      <c r="B187" s="16"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="23"/>
-      <c r="F187" s="24"/>
+      <c r="A187" s="13"/>
+      <c r="B187" s="105"/>
+      <c r="C187" s="105"/>
+      <c r="D187" s="108"/>
+      <c r="E187" s="112"/>
+      <c r="F187" s="113"/>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="14"/>
-      <c r="B188" s="16"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="23"/>
-      <c r="F188" s="24"/>
+      <c r="A188" s="13"/>
+      <c r="B188" s="105"/>
+      <c r="C188" s="105"/>
+      <c r="D188" s="108"/>
+      <c r="E188" s="112"/>
+      <c r="F188" s="113"/>
     </row>
     <row r="189" spans="1:6" ht="15" thickBot="1">
       <c r="A189" s="9"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="25"/>
-      <c r="F189" s="26"/>
+      <c r="B189" s="106"/>
+      <c r="C189" s="106"/>
+      <c r="D189" s="109"/>
+      <c r="E189" s="114"/>
+      <c r="F189" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="139">
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="A183:A189"/>
+    <mergeCell ref="B183:B189"/>
+    <mergeCell ref="C183:C189"/>
+    <mergeCell ref="D183:D189"/>
+    <mergeCell ref="E183:F189"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="D172:D178"/>
+    <mergeCell ref="E172:E178"/>
+    <mergeCell ref="F172:F178"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="A162:A168"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="F162:F168"/>
+    <mergeCell ref="B163:B168"/>
+    <mergeCell ref="C163:C168"/>
+    <mergeCell ref="D163:D168"/>
+    <mergeCell ref="E163:E168"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="C153:C158"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="E153:E158"/>
+    <mergeCell ref="F153:F158"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="A142:A148"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="D143:D148"/>
+    <mergeCell ref="E143:E148"/>
+    <mergeCell ref="F143:F148"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="D132:D137"/>
+    <mergeCell ref="E132:E137"/>
+    <mergeCell ref="F132:F137"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:B127"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="D122:D127"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="F122:F127"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="C111:F117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="D101:D107"/>
+    <mergeCell ref="E101:E107"/>
+    <mergeCell ref="F101:F107"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:C97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="F91:F97"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:C86"/>
+    <mergeCell ref="D80:D86"/>
+    <mergeCell ref="E80:E86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C76"/>
+    <mergeCell ref="D70:D76"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="F70:F76"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="A19:A25"/>
@@ -3399,129 +3522,6 @@
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="F9:F15"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="B39:C45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="B80:C86"/>
-    <mergeCell ref="D80:D86"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="F80:F86"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C76"/>
-    <mergeCell ref="D70:D76"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="F70:F76"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="C101:C107"/>
-    <mergeCell ref="D101:D107"/>
-    <mergeCell ref="E101:E107"/>
-    <mergeCell ref="F101:F107"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:C97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="F91:F97"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:B127"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="D122:D127"/>
-    <mergeCell ref="E122:E127"/>
-    <mergeCell ref="F122:F127"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="C111:F117"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="D132:D137"/>
-    <mergeCell ref="E132:E137"/>
-    <mergeCell ref="F132:F137"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="C143:C148"/>
-    <mergeCell ref="D143:D148"/>
-    <mergeCell ref="E143:E148"/>
-    <mergeCell ref="F143:F148"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="C153:C158"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="E153:E158"/>
-    <mergeCell ref="F153:F158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="A162:A168"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="F162:F168"/>
-    <mergeCell ref="B163:B168"/>
-    <mergeCell ref="C163:C168"/>
-    <mergeCell ref="D163:D168"/>
-    <mergeCell ref="E163:E168"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="A183:A189"/>
-    <mergeCell ref="B183:B189"/>
-    <mergeCell ref="C183:C189"/>
-    <mergeCell ref="D183:D189"/>
-    <mergeCell ref="E183:F189"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="A172:A178"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="D172:D178"/>
-    <mergeCell ref="E172:E178"/>
-    <mergeCell ref="F172:F178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Semester 5/2. Grand-Opening/JADWAL STUPEN LEARNINGX.xlsx
+++ b/Semester 5/2. Grand-Opening/JADWAL STUPEN LEARNINGX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Zefanya\Dokumen\Kuliah\Semester 5\2. Grand-Opening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D1CFD5-4919-4E98-A018-467E8676AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E092D62-A6A6-4632-B3D4-C859B38E752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BD6ACF87-FF3E-4F53-9866-6D3027BE94C5}"/>
   </bookViews>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +318,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -914,13 +921,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,7 +1421,7 @@
   <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="56" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="B60" sqref="B60:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1943,10 +1950,10 @@
         <v>17</v>
       </c>
       <c r="C50" s="18"/>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F50" s="58" t="s">
@@ -1957,48 +1964,48 @@
       <c r="A51" s="13"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="53"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="59"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="13"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="53"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="59"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="13"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="53"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
       <c r="F53" s="59"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="13"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="53"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="59"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="13"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="53"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="59"/>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1">
       <c r="A56" s="9"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="54"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1">
@@ -2043,10 +2050,10 @@
       <c r="A60" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="44"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="49" t="s">
         <v>10</v>
       </c>
@@ -2059,48 +2066,48 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="13"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="50"/>
       <c r="E61" s="53"/>
       <c r="F61" s="56"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="13"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="50"/>
       <c r="E62" s="53"/>
       <c r="F62" s="56"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="13"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="50"/>
       <c r="E63" s="53"/>
       <c r="F63" s="56"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="13"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="50"/>
       <c r="E64" s="53"/>
       <c r="F64" s="56"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="13"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="50"/>
       <c r="E65" s="53"/>
       <c r="F65" s="56"/>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1">
       <c r="A66" s="9"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="51"/>
       <c r="E66" s="54"/>
       <c r="F66" s="57"/>

--- a/Semester 5/2. Grand-Opening/JADWAL STUPEN LEARNINGX.xlsx
+++ b/Semester 5/2. Grand-Opening/JADWAL STUPEN LEARNINGX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Zefanya\Dokumen\Kuliah\Semester 5\2. Grand-Opening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E092D62-A6A6-4632-B3D4-C859B38E752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C914478-F85A-4AE6-9186-8E2E8AFDC30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BD6ACF87-FF3E-4F53-9866-6D3027BE94C5}"/>
   </bookViews>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +325,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -748,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -876,6 +883,24 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,24 +935,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,6 +1109,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1420,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D483B6F-379A-4C40-A0C9-30D83F226427}">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="56" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:C66"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="56" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1956,7 +1972,7 @@
       <c r="E50" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1966,7 +1982,7 @@
       <c r="C51" s="20"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="59"/>
+      <c r="F51" s="47"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="13"/>
@@ -1974,7 +1990,7 @@
       <c r="C52" s="20"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="59"/>
+      <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="13"/>
@@ -1982,7 +1998,7 @@
       <c r="C53" s="20"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="59"/>
+      <c r="F53" s="47"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="13"/>
@@ -1990,7 +2006,7 @@
       <c r="C54" s="20"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="59"/>
+      <c r="F54" s="47"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="13"/>
@@ -1998,7 +2014,7 @@
       <c r="C55" s="20"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="59"/>
+      <c r="F55" s="47"/>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1">
       <c r="A56" s="9"/>
@@ -2006,7 +2022,7 @@
       <c r="C56" s="22"/>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
-      <c r="F56" s="60"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1">
       <c r="A57" s="6"/>
@@ -2054,13 +2070,13 @@
         <v>21</v>
       </c>
       <c r="C60" s="18"/>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="55" t="s">
+      <c r="F60" s="119" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2068,49 +2084,49 @@
       <c r="A61" s="13"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="56"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="120"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="13"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="56"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="120"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="13"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="56"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="120"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="13"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="56"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="120"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="13"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="56"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="120"/>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1">
       <c r="A66" s="9"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="57"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="121"/>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1">
       <c r="A67" s="6"/>
@@ -2154,14 +2170,14 @@
       <c r="A70" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="49" t="s">
+      <c r="C70" s="50"/>
+      <c r="D70" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="58" t="s">
         <v>27</v>
       </c>
       <c r="F70" s="61" t="s">
@@ -2170,50 +2186,50 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="13"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="53"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="59"/>
       <c r="F71" s="62"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="13"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="53"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="59"/>
       <c r="F72" s="62"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="13"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="53"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="59"/>
       <c r="F73" s="62"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="13"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="53"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="59"/>
       <c r="F74" s="62"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="13"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="53"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="59"/>
       <c r="F75" s="62"/>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1">
       <c r="A76" s="9"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="54"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="60"/>
       <c r="F76" s="63"/>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1">
@@ -2258,67 +2274,67 @@
       <c r="A80" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="49" t="s">
+      <c r="C80" s="50"/>
+      <c r="D80" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="52" t="s">
+      <c r="E80" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="55" t="s">
+      <c r="F80" s="43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="13"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="56"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="44"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="13"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="56"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="44"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="13"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="56"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="44"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="13"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="56"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="44"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="56"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="44"/>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1">
       <c r="A86" s="9"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="57"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="45"/>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1">
       <c r="A87" s="2"/>
@@ -2374,67 +2390,67 @@
       <c r="A91" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="52" t="s">
+      <c r="C91" s="50"/>
+      <c r="D91" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E91" s="52" t="s">
+      <c r="E91" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="49" t="s">
+      <c r="F91" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="13"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="50"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="56"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="13"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="50"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="56"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="13"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="50"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="56"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="13"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="50"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="56"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="13"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="50"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="56"/>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1">
       <c r="A97" s="9"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="51"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="57"/>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1">
       <c r="A98" s="6"/>
@@ -2478,7 +2494,7 @@
       <c r="A101" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="49" t="s">
+      <c r="B101" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C101" s="64" t="s">
@@ -2496,7 +2512,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="13"/>
-      <c r="B102" s="50"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="65"/>
       <c r="D102" s="65"/>
       <c r="E102" s="65"/>
@@ -2504,7 +2520,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="13"/>
-      <c r="B103" s="50"/>
+      <c r="B103" s="56"/>
       <c r="C103" s="65"/>
       <c r="D103" s="65"/>
       <c r="E103" s="65"/>
@@ -2512,7 +2528,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="13"/>
-      <c r="B104" s="50"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="65"/>
       <c r="D104" s="65"/>
       <c r="E104" s="65"/>
@@ -2520,7 +2536,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="13"/>
-      <c r="B105" s="50"/>
+      <c r="B105" s="56"/>
       <c r="C105" s="65"/>
       <c r="D105" s="65"/>
       <c r="E105" s="65"/>
@@ -2528,7 +2544,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="13"/>
-      <c r="B106" s="50"/>
+      <c r="B106" s="56"/>
       <c r="C106" s="65"/>
       <c r="D106" s="65"/>
       <c r="E106" s="65"/>
@@ -2536,7 +2552,7 @@
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1">
       <c r="A107" s="9"/>
-      <c r="B107" s="51"/>
+      <c r="B107" s="57"/>
       <c r="C107" s="66"/>
       <c r="D107" s="66"/>
       <c r="E107" s="66"/>
@@ -2702,7 +2718,7 @@
         <v>45</v>
       </c>
       <c r="E122" s="76"/>
-      <c r="F122" s="55" t="s">
+      <c r="F122" s="43" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2712,7 +2728,7 @@
       <c r="C123" s="77"/>
       <c r="D123" s="74"/>
       <c r="E123" s="77"/>
-      <c r="F123" s="56"/>
+      <c r="F123" s="44"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="13"/>
@@ -2720,7 +2736,7 @@
       <c r="C124" s="77"/>
       <c r="D124" s="74"/>
       <c r="E124" s="77"/>
-      <c r="F124" s="56"/>
+      <c r="F124" s="44"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="13"/>
@@ -2728,7 +2744,7 @@
       <c r="C125" s="77"/>
       <c r="D125" s="74"/>
       <c r="E125" s="77"/>
-      <c r="F125" s="56"/>
+      <c r="F125" s="44"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="13"/>
@@ -2736,7 +2752,7 @@
       <c r="C126" s="77"/>
       <c r="D126" s="74"/>
       <c r="E126" s="77"/>
-      <c r="F126" s="56"/>
+      <c r="F126" s="44"/>
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1">
       <c r="A127" s="9"/>
